--- a/quizzes/17b. Quản lý cấp phòng.xlsx
+++ b/quizzes/17b. Quản lý cấp phòng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uybinh/Projects/quiz-nghiep-vu/quizzes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716C071A-B34E-0C4D-A81D-35762308898E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2FC356-7693-5140-98D7-EF82AA4A9B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="32000" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>ĐÁP ÁN ĐÚNG</t>
-  </si>
-  <si>
-    <t>TRÍCH DẪN NGUỒN CÂU HỎI</t>
   </si>
   <si>
     <t>GHI CHÚ</t>
@@ -1677,6 +1674,9 @@
   </si>
   <si>
     <t>ĐÁP ÁN 4</t>
+  </si>
+  <si>
+    <t>TRÍCH DẪN NGUỒN</t>
   </si>
 </sst>
 </file>
@@ -2190,7 +2190,7 @@
   <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2217,30 +2217,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>530</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -2256,25 +2256,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="10">
         <v>4</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" s="13"/>
     </row>
@@ -2283,25 +2283,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="G4" s="10">
         <v>4</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7"/>
     </row>
@@ -2310,23 +2310,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10">
         <v>1</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="7"/>
     </row>
@@ -2335,25 +2335,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="G6" s="10">
         <v>4</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7"/>
     </row>
@@ -2362,25 +2362,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="G7" s="10">
         <v>4</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" s="7"/>
     </row>
@@ -2389,25 +2389,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="G8" s="10">
         <v>1</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="7"/>
     </row>
@@ -2416,25 +2416,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="G9" s="10">
         <v>1</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9" s="7"/>
     </row>
@@ -2443,25 +2443,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>50</v>
       </c>
       <c r="G10" s="10">
         <v>3</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="7"/>
     </row>
@@ -2470,25 +2470,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>54</v>
-      </c>
       <c r="F11" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11" s="10">
         <v>4</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I11" s="7"/>
     </row>
@@ -2497,25 +2497,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="E12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="F12" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" s="10">
         <v>4</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I12" s="7"/>
     </row>
@@ -2524,25 +2524,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="E13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="F13" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" s="10">
         <v>4</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I13" s="7"/>
     </row>
@@ -2551,25 +2551,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="E14" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="F14" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="G14" s="10">
         <v>4</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I14" s="7"/>
     </row>
@@ -2578,25 +2578,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="G15" s="10">
         <v>4</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I15" s="7"/>
     </row>
@@ -2605,25 +2605,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="E16" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="F16" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="G16" s="10">
         <v>1</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I16" s="7"/>
     </row>
@@ -2632,25 +2632,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="E17" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="F17" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>86</v>
       </c>
       <c r="G17" s="10">
         <v>2</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I17" s="7"/>
     </row>
@@ -2659,25 +2659,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="E18" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>90</v>
-      </c>
       <c r="F18" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" s="10">
         <v>4</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I18" s="7"/>
     </row>
@@ -2686,25 +2686,25 @@
         <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>95</v>
       </c>
       <c r="G19" s="10">
         <v>1</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I19" s="7"/>
     </row>
@@ -2713,25 +2713,25 @@
         <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C20" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="E20" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>99</v>
       </c>
       <c r="G20" s="10">
         <v>1</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I20" s="7"/>
     </row>
@@ -2740,25 +2740,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="E21" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>104</v>
       </c>
       <c r="G21" s="10">
         <v>2</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I21" s="7"/>
     </row>
@@ -2767,25 +2767,25 @@
         <v>20</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="D22" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="E22" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="G22" s="10">
         <v>4</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I22" s="7"/>
     </row>
@@ -2794,25 +2794,25 @@
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="E23" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="F23" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="G23" s="10">
         <v>1</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I23" s="7"/>
     </row>
@@ -2821,25 +2821,25 @@
         <v>22</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="D24" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="E24" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>119</v>
       </c>
       <c r="G24" s="10">
         <v>3</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I24" s="7"/>
     </row>
@@ -2848,25 +2848,25 @@
         <v>23</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="D25" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="E25" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>123</v>
-      </c>
       <c r="F25" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G25" s="10">
         <v>4</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I25" s="7"/>
     </row>
@@ -2875,25 +2875,25 @@
         <v>24</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="D26" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="E26" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>129</v>
       </c>
       <c r="G26" s="10">
         <v>2</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I26" s="7"/>
     </row>
@@ -2902,23 +2902,23 @@
         <v>25</v>
       </c>
       <c r="B27" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="D27" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="E27" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>134</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="10">
         <v>1</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I27" s="7"/>
     </row>
@@ -2927,23 +2927,23 @@
         <v>26</v>
       </c>
       <c r="B28" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="D28" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="E28" s="10" t="s">
         <v>138</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>139</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="10">
         <v>1</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I28" s="7"/>
     </row>
@@ -2952,23 +2952,23 @@
         <v>27</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>142</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10">
         <v>1</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I29" s="7"/>
     </row>
@@ -2977,25 +2977,25 @@
         <v>28</v>
       </c>
       <c r="B30" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="D30" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="E30" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="F30" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>148</v>
       </c>
       <c r="G30" s="10">
         <v>3</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I30" s="7"/>
     </row>
@@ -3004,25 +3004,25 @@
         <v>29</v>
       </c>
       <c r="B31" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="D31" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="E31" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="F31" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>154</v>
       </c>
       <c r="G31" s="10">
         <v>3</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I31" s="7"/>
     </row>
@@ -3031,25 +3031,25 @@
         <v>30</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="D32" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="E32" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>158</v>
-      </c>
       <c r="F32" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G32" s="10">
         <v>4</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I32" s="7"/>
     </row>
@@ -3058,25 +3058,25 @@
         <v>31</v>
       </c>
       <c r="B33" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="D33" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="E33" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="F33" s="10" t="s">
         <v>162</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>163</v>
       </c>
       <c r="G33" s="10">
         <v>3</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I33" s="7"/>
     </row>
@@ -3085,25 +3085,25 @@
         <v>32</v>
       </c>
       <c r="B34" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="D34" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="E34" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="F34" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="G34" s="10">
         <v>3</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I34" s="7"/>
     </row>
@@ -3112,25 +3112,25 @@
         <v>33</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C35" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="E35" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="F35" s="10" t="s">
         <v>173</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>174</v>
       </c>
       <c r="G35" s="10">
         <v>1</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I35" s="7"/>
     </row>
@@ -3139,23 +3139,23 @@
         <v>34</v>
       </c>
       <c r="B36" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="I36" s="7"/>
     </row>
@@ -3164,23 +3164,23 @@
         <v>35</v>
       </c>
       <c r="B37" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="E37" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I37" s="7"/>
     </row>
@@ -3189,25 +3189,25 @@
         <v>36</v>
       </c>
       <c r="B38" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="F38" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="F38" s="6" t="s">
-        <v>191</v>
-      </c>
       <c r="G38" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I38" s="7"/>
     </row>
@@ -3216,25 +3216,25 @@
         <v>37</v>
       </c>
       <c r="B39" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="E39" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="F39" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="G39" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="I39" s="7"/>
     </row>
@@ -3243,25 +3243,25 @@
         <v>38</v>
       </c>
       <c r="B40" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="E40" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="F40" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="G40" s="6">
         <v>1</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I40" s="7"/>
     </row>
@@ -3270,25 +3270,25 @@
         <v>39</v>
       </c>
       <c r="B41" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="E41" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="F41" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="G41" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H41" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>209</v>
       </c>
       <c r="I41" s="7"/>
     </row>
@@ -3297,25 +3297,25 @@
         <v>40</v>
       </c>
       <c r="B42" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="E42" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="G42" s="6">
         <v>1</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I42" s="7"/>
     </row>
@@ -3324,25 +3324,25 @@
         <v>41</v>
       </c>
       <c r="B43" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="E43" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="F43" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="G43" s="6">
         <v>1</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I43" s="7"/>
     </row>
@@ -3351,25 +3351,25 @@
         <v>42</v>
       </c>
       <c r="B44" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="F44" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>225</v>
       </c>
       <c r="G44" s="6">
         <v>1</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I44" s="7"/>
     </row>
@@ -3378,25 +3378,25 @@
         <v>43</v>
       </c>
       <c r="B45" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="D45" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="E45" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="F45" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>230</v>
       </c>
       <c r="G45" s="6">
         <v>1</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I45" s="7"/>
     </row>
@@ -3405,25 +3405,25 @@
         <v>44</v>
       </c>
       <c r="B46" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="D46" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="E46" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="F46" s="13" t="s">
         <v>234</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>235</v>
       </c>
       <c r="G46" s="10">
         <v>1</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I46" s="7"/>
     </row>
@@ -3432,25 +3432,25 @@
         <v>45</v>
       </c>
       <c r="B47" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="D47" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="E47" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="E47" s="13" t="s">
-        <v>240</v>
-      </c>
       <c r="F47" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G47" s="10">
         <v>4</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I47" s="7"/>
     </row>
@@ -3459,25 +3459,25 @@
         <v>46</v>
       </c>
       <c r="B48" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="D48" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="E48" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="F48" s="13" t="s">
         <v>244</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>245</v>
       </c>
       <c r="G48" s="10">
         <v>2</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I48" s="7"/>
     </row>
@@ -3486,25 +3486,25 @@
         <v>47</v>
       </c>
       <c r="B49" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C49" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="D49" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="E49" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="E49" s="13" t="s">
-        <v>249</v>
-      </c>
       <c r="F49" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G49" s="10">
         <v>4</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I49" s="7"/>
     </row>
@@ -3513,23 +3513,23 @@
         <v>48</v>
       </c>
       <c r="B50" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C50" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="D50" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="E50" s="13" t="s">
         <v>252</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>253</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="10">
         <v>3</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I50" s="7"/>
     </row>
@@ -3538,23 +3538,23 @@
         <v>49</v>
       </c>
       <c r="B51" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C51" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="D51" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="E51" s="13" t="s">
         <v>257</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>258</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="10">
         <v>3</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I51" s="7"/>
     </row>
@@ -3563,25 +3563,25 @@
         <v>50</v>
       </c>
       <c r="B52" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C52" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="D52" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="E52" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="E52" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="F52" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G52" s="10">
         <v>4</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I52" s="7"/>
     </row>
@@ -3590,25 +3590,25 @@
         <v>51</v>
       </c>
       <c r="B53" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C53" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="D53" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="E53" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="F53" s="13" t="s">
         <v>267</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>268</v>
       </c>
       <c r="G53" s="10">
         <v>2</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I53" s="7"/>
     </row>
@@ -3617,25 +3617,25 @@
         <v>52</v>
       </c>
       <c r="B54" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C54" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="D54" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="E54" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="F54" s="13" t="s">
         <v>273</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>274</v>
       </c>
       <c r="G54" s="10">
         <v>1</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I54" s="7"/>
     </row>
@@ -3644,23 +3644,23 @@
         <v>53</v>
       </c>
       <c r="B55" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C55" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="D55" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="E55" s="13" t="s">
         <v>277</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>510</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>278</v>
       </c>
       <c r="F55" s="17"/>
       <c r="G55" s="10">
         <v>1</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I55" s="7"/>
     </row>
@@ -3669,25 +3669,25 @@
         <v>54</v>
       </c>
       <c r="B56" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C56" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="D56" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="E56" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="E56" s="13" t="s">
+      <c r="F56" s="13" t="s">
         <v>283</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>284</v>
       </c>
       <c r="G56" s="10">
         <v>3</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I56" s="7"/>
     </row>
@@ -3696,25 +3696,25 @@
         <v>55</v>
       </c>
       <c r="B57" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C57" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="D57" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="E57" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="F57" s="13" t="s">
         <v>289</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>290</v>
       </c>
       <c r="G57" s="10">
         <v>3</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I57" s="7"/>
     </row>
@@ -3723,25 +3723,25 @@
         <v>56</v>
       </c>
       <c r="B58" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C58" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="D58" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="E58" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="E58" s="13" t="s">
-        <v>295</v>
-      </c>
       <c r="F58" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G58" s="10">
         <v>4</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I58" s="7"/>
     </row>
@@ -3750,25 +3750,25 @@
         <v>57</v>
       </c>
       <c r="B59" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C59" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="D59" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="E59" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="E59" s="13" t="s">
-        <v>300</v>
-      </c>
       <c r="F59" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G59" s="10">
         <v>3</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I59" s="7"/>
     </row>
@@ -3777,25 +3777,25 @@
         <v>58</v>
       </c>
       <c r="B60" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C60" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="D60" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="E60" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="E60" s="13" t="s">
-        <v>304</v>
-      </c>
       <c r="F60" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G60" s="10">
         <v>4</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I60" s="7"/>
     </row>
@@ -3804,25 +3804,25 @@
         <v>59</v>
       </c>
       <c r="B61" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C61" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="D61" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="E61" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="F61" s="13" t="s">
         <v>308</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>309</v>
       </c>
       <c r="G61" s="10">
         <v>4</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I61" s="7"/>
     </row>
@@ -3831,25 +3831,25 @@
         <v>60</v>
       </c>
       <c r="B62" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C62" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="D62" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="E62" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="E62" s="13" t="s">
-        <v>313</v>
-      </c>
       <c r="F62" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G62" s="10">
         <v>4</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I62" s="7"/>
     </row>
@@ -3858,23 +3858,23 @@
         <v>61</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C63" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D63" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="E63" s="13" t="s">
         <v>316</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>317</v>
       </c>
       <c r="F63" s="13"/>
       <c r="G63" s="10">
         <v>1</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I63" s="7"/>
     </row>
@@ -3883,23 +3883,23 @@
         <v>62</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C64" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D64" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="D64" s="13" t="s">
-        <v>320</v>
-      </c>
       <c r="E64" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F64" s="17"/>
       <c r="G64" s="10">
         <v>1</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I64" s="7"/>
     </row>
@@ -3908,25 +3908,25 @@
         <v>63</v>
       </c>
       <c r="B65" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C65" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="D65" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="E65" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="E65" s="18" t="s">
+      <c r="F65" s="18" t="s">
         <v>324</v>
-      </c>
-      <c r="F65" s="18" t="s">
-        <v>325</v>
       </c>
       <c r="G65" s="10">
         <v>1</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I65" s="7"/>
     </row>
@@ -3935,25 +3935,25 @@
         <v>64</v>
       </c>
       <c r="B66" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C66" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="D66" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="E66" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="D66" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="E66" s="13" t="s">
+      <c r="F66" s="13" t="s">
         <v>328</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>329</v>
       </c>
       <c r="G66" s="10">
         <v>3</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I66" s="7"/>
     </row>
@@ -3962,25 +3962,25 @@
         <v>65</v>
       </c>
       <c r="B67" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="C67" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="D67" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="E67" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="E67" s="13" t="s">
-        <v>333</v>
-      </c>
       <c r="F67" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G67" s="10">
         <v>4</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I67" s="7"/>
     </row>
@@ -3989,23 +3989,23 @@
         <v>66</v>
       </c>
       <c r="B68" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="C68" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="D68" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="D68" s="19" t="s">
+      <c r="E68" s="19" t="s">
         <v>336</v>
-      </c>
-      <c r="E68" s="19" t="s">
-        <v>337</v>
       </c>
       <c r="F68" s="19"/>
       <c r="G68" s="10">
         <v>1</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I68" s="7"/>
     </row>
@@ -4014,25 +4014,25 @@
         <v>67</v>
       </c>
       <c r="B69" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C69" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="D69" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="D69" s="19" t="s">
+      <c r="E69" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="F69" s="19" t="s">
         <v>341</v>
-      </c>
-      <c r="F69" s="19" t="s">
-        <v>342</v>
       </c>
       <c r="G69" s="10">
         <v>1</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I69" s="7"/>
     </row>
@@ -4041,25 +4041,25 @@
         <v>68</v>
       </c>
       <c r="B70" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="C70" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="D70" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="E70" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="E70" s="13" t="s">
-        <v>346</v>
-      </c>
       <c r="F70" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G70" s="10">
         <v>2</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I70" s="7"/>
     </row>
@@ -4068,25 +4068,25 @@
         <v>69</v>
       </c>
       <c r="B71" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="C71" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="D71" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="D71" s="13" t="s">
+      <c r="E71" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="E71" s="13" t="s">
-        <v>350</v>
-      </c>
       <c r="F71" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G71" s="10">
         <v>4</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I71" s="7"/>
     </row>
@@ -4095,23 +4095,23 @@
         <v>70</v>
       </c>
       <c r="B72" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="C72" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="D72" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="E72" s="13" t="s">
         <v>353</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>354</v>
       </c>
       <c r="F72" s="17"/>
       <c r="G72" s="10">
         <v>2</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I72" s="7"/>
     </row>
@@ -4120,25 +4120,25 @@
         <v>71</v>
       </c>
       <c r="B73" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="C73" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="D73" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="E73" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="E73" s="13" t="s">
+      <c r="F73" s="13" t="s">
         <v>358</v>
-      </c>
-      <c r="F73" s="13" t="s">
-        <v>359</v>
       </c>
       <c r="G73" s="10">
         <v>2</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I73" s="7"/>
     </row>
@@ -4147,25 +4147,25 @@
         <v>72</v>
       </c>
       <c r="B74" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="C74" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="D74" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="E74" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="E74" s="13" t="s">
-        <v>363</v>
-      </c>
       <c r="F74" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G74" s="10">
         <v>4</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I74" s="7"/>
     </row>
@@ -4174,25 +4174,25 @@
         <v>73</v>
       </c>
       <c r="B75" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="C75" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="D75" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="E75" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="F75" s="13" t="s">
         <v>367</v>
-      </c>
-      <c r="F75" s="13" t="s">
-        <v>368</v>
       </c>
       <c r="G75" s="10">
         <v>1</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I75" s="7"/>
     </row>
@@ -4201,25 +4201,25 @@
         <v>74</v>
       </c>
       <c r="B76" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="C76" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="D76" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="D76" s="13" t="s">
+      <c r="E76" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="E76" s="13" t="s">
-        <v>372</v>
-      </c>
       <c r="F76" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G76" s="10">
         <v>4</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I76" s="7"/>
     </row>
@@ -4228,25 +4228,25 @@
         <v>75</v>
       </c>
       <c r="B77" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C77" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="D77" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="D77" s="13" t="s">
+      <c r="E77" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E77" s="13" t="s">
-        <v>376</v>
-      </c>
       <c r="F77" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G77" s="10">
         <v>4</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I77" s="7"/>
     </row>
@@ -4255,25 +4255,25 @@
         <v>76</v>
       </c>
       <c r="B78" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="D78" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="C78" s="13" t="s">
-        <v>521</v>
-      </c>
-      <c r="D78" s="13" t="s">
+      <c r="E78" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="F78" s="13" t="s">
         <v>379</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>513</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>380</v>
       </c>
       <c r="G78" s="10">
         <v>2</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I78" s="7"/>
     </row>
@@ -4282,25 +4282,25 @@
         <v>77</v>
       </c>
       <c r="B79" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="C79" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="D79" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="E79" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="E79" s="13" t="s">
+      <c r="F79" s="13" t="s">
         <v>384</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>385</v>
       </c>
       <c r="G79" s="10">
         <v>3</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I79" s="7"/>
     </row>
@@ -4309,25 +4309,25 @@
         <v>78</v>
       </c>
       <c r="B80" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="C80" s="19" t="s">
         <v>386</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="D80" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="D80" s="13" t="s">
-        <v>388</v>
-      </c>
       <c r="E80" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="F80" s="13" t="s">
         <v>522</v>
-      </c>
-      <c r="F80" s="13" t="s">
-        <v>523</v>
       </c>
       <c r="G80" s="10">
         <v>1</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I80" s="7"/>
     </row>
@@ -4336,25 +4336,25 @@
         <v>79</v>
       </c>
       <c r="B81" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="C81" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="D81" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="D81" s="13" t="s">
+      <c r="E81" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="E81" s="13" t="s">
-        <v>393</v>
-      </c>
       <c r="F81" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G81" s="10">
         <v>4</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I81" s="7"/>
     </row>
@@ -4363,25 +4363,25 @@
         <v>80</v>
       </c>
       <c r="B82" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="D82" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="E82" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="F82" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="F82" s="6" t="s">
+      <c r="G82" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H82" s="6" t="s">
         <v>398</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>399</v>
       </c>
       <c r="I82" s="7"/>
     </row>
@@ -4390,25 +4390,25 @@
         <v>81</v>
       </c>
       <c r="B83" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="C83" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="D83" s="19" t="s">
         <v>401</v>
       </c>
-      <c r="D83" s="19" t="s">
+      <c r="E83" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="E83" s="19" t="s">
+      <c r="F83" s="19" t="s">
         <v>403</v>
-      </c>
-      <c r="F83" s="19" t="s">
-        <v>404</v>
       </c>
       <c r="G83" s="10">
         <v>1</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I83" s="7"/>
     </row>
@@ -4417,25 +4417,25 @@
         <v>82</v>
       </c>
       <c r="B84" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="D84" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="E84" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="F84" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="F84" s="6" t="s">
+      <c r="G84" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H84" s="6" t="s">
         <v>409</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>410</v>
       </c>
       <c r="I84" s="7"/>
     </row>
@@ -4444,25 +4444,25 @@
         <v>83</v>
       </c>
       <c r="B85" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="D85" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="E85" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="F85" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="F85" s="6" t="s">
-        <v>415</v>
-      </c>
       <c r="G85" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I85" s="7"/>
     </row>
@@ -4471,25 +4471,25 @@
         <v>84</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C86" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="E86" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="F86" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="G86" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H86" s="6" t="s">
         <v>419</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>420</v>
       </c>
       <c r="I86" s="7"/>
     </row>
@@ -4498,25 +4498,25 @@
         <v>85</v>
       </c>
       <c r="B87" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="D87" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="E87" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F87" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="E87" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="F87" s="6" t="s">
+      <c r="G87" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H87" s="6" t="s">
         <v>424</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>425</v>
       </c>
       <c r="I87" s="7"/>
     </row>
@@ -4525,25 +4525,25 @@
         <v>86</v>
       </c>
       <c r="B88" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="D88" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="E88" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="F88" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="F88" s="6" t="s">
+      <c r="G88" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H88" s="6" t="s">
         <v>430</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>431</v>
       </c>
       <c r="I88" s="7"/>
     </row>
@@ -4552,23 +4552,23 @@
         <v>87</v>
       </c>
       <c r="B89" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="D89" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="E89" s="6" t="s">
         <v>434</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>435</v>
       </c>
       <c r="F89" s="17"/>
       <c r="G89" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I89" s="7"/>
     </row>
@@ -4577,25 +4577,25 @@
         <v>88</v>
       </c>
       <c r="B90" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="D90" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="E90" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="F90" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="G90" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H90" s="6" t="s">
         <v>441</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>442</v>
       </c>
       <c r="I90" s="7"/>
     </row>
@@ -4604,25 +4604,25 @@
         <v>89</v>
       </c>
       <c r="B91" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="D91" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E91" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="D91" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>445</v>
-      </c>
       <c r="F91" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I91" s="7"/>
     </row>
@@ -4631,25 +4631,25 @@
         <v>90</v>
       </c>
       <c r="B92" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="D92" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="E92" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="F92" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="G92" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H92" s="6" t="s">
         <v>450</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>451</v>
       </c>
       <c r="I92" s="7"/>
     </row>
@@ -4658,25 +4658,25 @@
         <v>91</v>
       </c>
       <c r="B93" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="D93" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="E93" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="F93" s="6" t="s">
         <v>455</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>456</v>
       </c>
       <c r="G93" s="6">
         <v>2</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I93" s="7"/>
     </row>
@@ -4685,25 +4685,25 @@
         <v>92</v>
       </c>
       <c r="B94" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="D94" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="E94" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="F94" s="6" t="s">
         <v>461</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>462</v>
       </c>
       <c r="G94" s="6">
         <v>3</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I94" s="7"/>
     </row>
@@ -4712,25 +4712,25 @@
         <v>93</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C95" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="E95" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="F95" s="6" t="s">
         <v>466</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>467</v>
       </c>
       <c r="G95" s="6">
         <v>2</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I95" s="7"/>
     </row>
@@ -4739,25 +4739,25 @@
         <v>94</v>
       </c>
       <c r="B96" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="D96" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="E96" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="F96" s="6" t="s">
         <v>472</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>473</v>
       </c>
       <c r="G96" s="6">
         <v>3</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I96" s="7"/>
     </row>
@@ -4766,25 +4766,25 @@
         <v>95</v>
       </c>
       <c r="B97" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="D97" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="E97" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="F97" s="6" t="s">
         <v>477</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>478</v>
       </c>
       <c r="G97" s="6">
         <v>3</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I97" s="7"/>
     </row>
@@ -4793,25 +4793,25 @@
         <v>96</v>
       </c>
       <c r="B98" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="D98" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="E98" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="F98" s="6" t="s">
         <v>483</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>484</v>
       </c>
       <c r="G98" s="6">
         <v>2</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I98" s="7"/>
     </row>
@@ -4820,25 +4820,25 @@
         <v>97</v>
       </c>
       <c r="B99" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="D99" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="E99" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="E99" s="6" t="s">
-        <v>489</v>
-      </c>
       <c r="F99" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G99" s="6">
         <v>2</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I99" s="7"/>
     </row>
@@ -4847,25 +4847,25 @@
         <v>98</v>
       </c>
       <c r="B100" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C100" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="D100" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="E100" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="F100" s="6" t="s">
         <v>493</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>494</v>
       </c>
       <c r="G100" s="6">
         <v>2</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I100" s="7"/>
     </row>
@@ -4874,25 +4874,25 @@
         <v>99</v>
       </c>
       <c r="B101" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="D101" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="E101" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="F101" s="6" t="s">
         <v>499</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>500</v>
       </c>
       <c r="G101" s="6">
         <v>1</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I101" s="7"/>
     </row>
@@ -4901,25 +4901,25 @@
         <v>100</v>
       </c>
       <c r="B102" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="C102" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="D102" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="E102" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="D102" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="E102" s="6" t="s">
+      <c r="F102" s="6" t="s">
         <v>503</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>504</v>
       </c>
       <c r="G102" s="6">
         <v>2</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I102" s="7"/>
     </row>
